--- a/AAII_Financials/Yearly/JMAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JMAC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>JMAC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -714,23 +714,23 @@
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -859,26 +859,26 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -886,26 +886,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,8 +923,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>200</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>3</v>
@@ -1017,8 +1017,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1044,26 +1044,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,8 +1071,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-200</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1098,26 +1098,26 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,8 +1152,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-200</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>3</v>
@@ -1179,8 +1179,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-200</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>3</v>
@@ -1233,26 +1233,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -1341,8 +1341,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-200</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>3</v>
@@ -1395,8 +1395,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-200</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>3</v>
@@ -1481,25 +1481,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1589,25 +1589,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1616,25 +1616,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1643,25 +1643,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>105100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1832,25 +1832,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
+        <v>105800</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1887,23 +1887,23 @@
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1968,23 +1968,23 @@
       <c r="D60" s="3">
         <v>0</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
+      <c r="E60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -2020,25 +2020,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>3600</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2128,25 +2128,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
+        <v>3700</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2276,25 +2276,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-2900</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2384,25 +2384,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
+        <v>102200</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,8 +2469,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-200</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>3</v>
@@ -2672,25 +2672,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2793,25 +2793,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-105100</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2941,25 +2941,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>106000</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2995,25 +2995,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3"/>
     </row>
